--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Desktop/Disease specific attribution/scenarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA50DD5-DCCD-0F49-9F0A-83863E2D879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D4E5A-0326-CA43-8620-26DF56AF31B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-620" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="368">
   <si>
     <t>AHLE Parameter</t>
   </si>
@@ -289,16 +289,16 @@
     <t>0.44</t>
   </si>
   <si>
-    <t>rpert(10000,0.528155141733642,0.52973352286904,0.529221898639954)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.438519598041629,0.439825022490247,0.439383807379672)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.529946122168983,0.529996022114311,0.529988775605057)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.439954122705182,0.439996821575658,0.439992084259372)</t>
+    <t>rpert(10000,0.523923412028754,0.529115820613565,0.527810438094783)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.435883731955272,0.439453108573222,0.438348233232671)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.529945212758172,0.529997020922543,0.529988805770719)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.439959556904763,0.439997254835068,0.43999065937699)</t>
   </si>
   <si>
     <t>milk_value_ltr</t>
@@ -373,28 +373,28 @@
     <t>rpert(1000, 0.03/6, 0.6/6, 0.18/6)</t>
   </si>
   <si>
-    <t>rpert(10000,0.000134409553486073,0.00318257611850059,0.00069330785023264)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000125497506048066,0.00341333137765322,0.000745766802664381)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000219213890368434,0.00593630288691467,0.00152689410919792)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000224633890833908,0.00627277757241471,0.00157102219195532)</t>
-  </si>
-  <si>
-    <t>rpert(10000,4.3628505189944e-06,9.11286955384516e-05,1.12943636433325e-05)</t>
-  </si>
-  <si>
-    <t>rpert(10000,5.2930885457337e-06,0.00010469102317625,9.9881149428775e-06)</t>
-  </si>
-  <si>
-    <t>rpert(10000,8.62087594136897e-06,0.000125344922087001,1.72414524797603e-05)</t>
-  </si>
-  <si>
-    <t>rpert(10000,9.55742238943119e-06,0.000109378340449445,2.31003615870557e-05)</t>
+    <t>rpert(10000,0.000116991131170659,0.00308182299443404,0.00072391355732723)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000127187746603674,0.00366798992416746,0.000686781599267169)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000218074714808748,0.00604780861825356,0.00151895764218581)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000192606574424708,0.00621909822636434,0.00160852052989736)</t>
+  </si>
+  <si>
+    <t>rpert(10000,4.98699322214014e-06,7.44407807978191e-05,1.53647531196854e-05)</t>
+  </si>
+  <si>
+    <t>rpert(10000,6.82697330647405e-06,7.6736266251838e-05,1.65279681172381e-05)</t>
+  </si>
+  <si>
+    <t>rpert(10000,8.79191355919839e-06,9.81199805677948e-05,2.41897075908163e-05)</t>
+  </si>
+  <si>
+    <t>rpert(10000,8.32651329783294e-06,0.000122008634736724,2.04025417814401e-05)</t>
   </si>
   <si>
     <t>AlphaJ</t>
@@ -409,16 +409,16 @@
     <t>rpert(1000, 0.14/6, 0.14/6, 0.14/6)</t>
   </si>
   <si>
-    <t>rpert(10000,0.000156285330324334,0.00367832646265846,0.000743208813731075)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000179586502752257,0.00367252014395997,0.000867899725084099)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000231474046099103,0.00581060841268544,0.00161366020291672)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000239006549759046,0.00672958170746777,0.00153040606991434)</t>
+    <t>rpert(10000,0.000141031310519345,0.00340220135410079,0.00083399372363374)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000162844448936618,0.00398207246568165,0.000795786779628026)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000215060351037448,0.00618790970533828,0.00153052368058862)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.00018013042288901,0.00614275060912874,0.00168356687637067)</t>
   </si>
   <si>
     <t>AlphaF</t>
@@ -433,28 +433,28 @@
     <t>rpert(1000, 0.04/12, 0.13/12, 0.09/12)</t>
   </si>
   <si>
-    <t>rpert(10000,0.000111203699374363,0.00225612635379497,0.000474930308149419)</t>
-  </si>
-  <si>
-    <t>rpert(10000,9.81092658411735e-05,0.00202848955376356,0.000400598027654353)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000178062258548949,0.00405904404514038,0.000885796921723272)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000149298359997603,0.00381912876797322,0.000856268343858346)</t>
-  </si>
-  <si>
-    <t>rpert(10000,2.79265990081844e-07,6.22972404900476e-06,4.59501657389016e-07)</t>
-  </si>
-  <si>
-    <t>rpert(10000,2.33251758310198e-07,4.28564751655911e-06,6.94173005178241e-07)</t>
-  </si>
-  <si>
-    <t>rpert(10000,3.74758207148485e-07,8.08014910499898e-06,6.48996249892217e-07)</t>
-  </si>
-  <si>
-    <t>rpert(10000,3.02235466635892e-07,6.87894445593757e-06,8.28058406200538e-07)</t>
+    <t>rpert(10000,0.000101707205400686,0.00199125154523217,0.000549392593271463)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.00010049374683891,0.00187709206837283,0.000432966896295771)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000153730524337801,0.00383200154754454,0.000949210723727086)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000131739628682422,0.00345962128787474,0.00094508788788562)</t>
+  </si>
+  <si>
+    <t>rpert(10000,2.99342057431439e-07,5.19176405038013e-06,7.08762193691861e-07)</t>
+  </si>
+  <si>
+    <t>rpert(10000,2.5458489470098e-07,4.0529780163037e-06,7.4770053146625e-07)</t>
+  </si>
+  <si>
+    <t>rpert(10000,4.34484040413051e-07,5.75594065731715e-06,1.22615481721307e-06)</t>
+  </si>
+  <si>
+    <t>rpert(10000,3.53115412858233e-07,6.14542146517148e-06,9.98021812525498e-07)</t>
   </si>
   <si>
     <t>AlphaM</t>
@@ -469,16 +469,16 @@
     <t>rpert(1000, 0.05/12, 0.13/12, 0.09/12)</t>
   </si>
   <si>
-    <t>rpert(10000,4.63892260651343e-05,0.000887594013659135,0.000210123276857232)</t>
-  </si>
-  <si>
-    <t>rpert(10000,5.99688198971096e-05,0.00144855363983377,0.000320917989880937)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000106290730544208,0.00218450566573271,0.000541921974355401)</t>
-  </si>
-  <si>
-    <t>rpert(10000,9.00786247422695e-05,0.00239539756314924,0.000656004581743383)</t>
+    <t>rpert(10000,5.32181839037925e-05,0.000827688430141543,0.000221916072060784)</t>
+  </si>
+  <si>
+    <t>rpert(10000,7.45204866079051e-05,0.00138907157158103,0.000328004453334497)</t>
+  </si>
+  <si>
+    <t>rpert(10000,7.35086724051142e-05,0.00222836053782904,0.000541253137663935)</t>
+  </si>
+  <si>
+    <t>rpert(10000,8.33011922070789e-05,0.00238080653962697,0.000659368795289837)</t>
   </si>
   <si>
     <t># Culls</t>
@@ -1018,6 +1018,30 @@
     <t>rpert(10000, (260/12), (649/12), (368/12))</t>
   </si>
   <si>
+    <t>rpert(10000,21.5460302592659,52.6417849892953,30.5741431427786)</t>
+  </si>
+  <si>
+    <t>rpert(10000,21.5184620246659,52.6576510448321,30.6627727865869)</t>
+  </si>
+  <si>
+    <t>rpert(10000,21.3501908638026,51.707692784256,30.8527773878429)</t>
+  </si>
+  <si>
+    <t>rpert(10000,21.5242344108972,51.5260766881842,30.8185135489957)</t>
+  </si>
+  <si>
+    <t>rpert(10000,21.7450206711001,51.8163363211342,31.2165280347598)</t>
+  </si>
+  <si>
+    <t>rpert(10000,21.8295844987448,52.9607800751334,30.8135508337074)</t>
+  </si>
+  <si>
+    <t>rpert(10000,21.898112415062,52.0216696706451,31.1463660426073)</t>
+  </si>
+  <si>
+    <t>rpert(10000,21.8118158642296,51.3334544864124,31.2930014051047)</t>
+  </si>
+  <si>
     <t>lab_non_health</t>
   </si>
   <si>
@@ -1042,28 +1066,22 @@
     <t>runif(10000, (2.2/12), (2.8/12))</t>
   </si>
   <si>
-    <t>rpert(10000,0.0205278646084586,0.227378754837726,0.0618594104675901)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.0211540354228057,0.234592558320033,0.0672248656376064)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.0213833239642956,0.225218583671154,0.0923550993556093)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.0204636747401951,0.257664760909479,0.0908553582092941)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000953414566923747,0.0149432775181118,0.00282777078498726)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000989380592422069,0.0158960961185475,0.00300169902817774)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.00122892092924821,0.0211569136728329,0.00422124853153377)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.00151380758490779,0.0248628593215218,0.00363265746359942)</t>
+    <t>rpert(10000,0.000453471880004924,0.367585542549371,0.0108778126416506)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000463058949761048,0.331669957628834,0.0262369517356783)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000711930430477487,0.368885907931813,0.0365735213317957)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.00135390733998949,0.47014876961416,0.0154219670177168)</t>
+  </si>
+  <si>
+    <t>rpert(10000,7.23688976228906e-05,0.0229744086777663,0.000294599142606751)</t>
+  </si>
+  <si>
+    <t>rpert(10000,3.28357529476166e-05,0.0317286983442613,0.000444535321097627)</t>
   </si>
   <si>
     <t>## Capital costs</t>
@@ -1076,67 +1094,6 @@
   </si>
   <si>
     <t>Infrastructure_per_head</t>
-  </si>
-  <si>
-    <r>
-      <t>rpert(10000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>.52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1.68664153251267,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1158,7 +1115,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1.70937960173152,</t>
+      <t>,1.68776885423172,</t>
     </r>
     <r>
       <rPr>
@@ -1189,6 +1146,47 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>0.52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.68444392828578,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t>0.37</t>
     </r>
     <r>
@@ -1199,7 +1197,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1.18747584839876,</t>
+      <t>,1.1821387779818,0.84585973838507)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,0.386868919190795,1.19023714895814,</t>
     </r>
     <r>
       <rPr>
@@ -1230,7 +1233,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>0.37</t>
+      <t>0.52</t>
     </r>
     <r>
       <rPr>
@@ -1240,7 +1243,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1.19421042763217,0.842839370520885)</t>
+      <t>,1.10081194389654,0.797872454592452)</t>
     </r>
   </si>
   <si>
@@ -1263,7 +1266,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1.1062155419979,</t>
+      <t>,1.11119335266897,</t>
     </r>
     <r>
       <rPr>
@@ -1294,7 +1297,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>0.52</t>
+      <t>0.55</t>
     </r>
     <r>
       <rPr>
@@ -1304,7 +1307,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1.11283129614805,</t>
+      <t>,1.11019063553329,</t>
     </r>
     <r>
       <rPr>
@@ -1312,7 +1315,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>0.80</t>
+      <t>0.85</t>
     </r>
     <r>
       <rPr>
@@ -1345,30 +1348,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1.10875652753617,0.849409699349612)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>rpert(10000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>0.55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1.11370816870116,</t>
+      <t>,1.10762138066658,</t>
     </r>
     <r>
       <rPr>
@@ -1389,12 +1369,18 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>rpert(10000,0.0000439356969377126,0.0271374707216779,0.00115275781364292)</t>
+  </si>
+  <si>
+    <t>rpert(10000,3.4050810942168e-05,0.032612289922902,2.00186154478751e-05)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,13 +1400,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1754,16 +1733,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="3" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="72.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="71.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="71.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="71.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2311,28 +2300,28 @@
         <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L15" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M15" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="N15" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="O15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P15" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q15" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="R15" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -4921,45 +4910,45 @@
         <v>331</v>
       </c>
       <c r="K108" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L108" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M108" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N108" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O108" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P108" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q108" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="R108" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G109" t="s">
         <v>277</v>
@@ -4974,33 +4963,33 @@
         <v>277</v>
       </c>
       <c r="K109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="N109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="O109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="R109" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -5010,20 +4999,20 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C115" t="s">
         <v>79</v>
@@ -5038,55 +5027,55 @@
         <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H115" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I115" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J115" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K115" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L115" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M115" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="N115" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="O115" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="P115" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q115" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="R115" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C119" t="s">
         <v>79</v>
@@ -5139,7 +5128,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
         <v>277</v>

--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D4E5A-0326-CA43-8620-26DF56AF31B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7856FF-B22C-1F4F-A576-BB8E720E0FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-620" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="364">
   <si>
     <t>AHLE Parameter</t>
   </si>
@@ -1064,24 +1064,6 @@
   </si>
   <si>
     <t>runif(10000, (2.2/12), (2.8/12))</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000453471880004924,0.367585542549371,0.0108778126416506)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000463058949761048,0.331669957628834,0.0262369517356783)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000711930430477487,0.368885907931813,0.0365735213317957)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.00135390733998949,0.47014876961416,0.0154219670177168)</t>
-  </si>
-  <si>
-    <t>rpert(10000,7.23688976228906e-05,0.0229744086777663,0.000294599142606751)</t>
-  </si>
-  <si>
-    <t>rpert(10000,3.28357529476166e-05,0.0317286983442613,0.000444535321097627)</t>
   </si>
   <si>
     <t>## Capital costs</t>
@@ -1202,29 +1184,6 @@
   </si>
   <si>
     <r>
-      <t>rpert(10000,0.386868919190795,1.19023714895814,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>0.85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>rpert(10000,</t>
     </r>
     <r>
@@ -1370,10 +1329,57 @@
     </r>
   </si>
   <si>
-    <t>rpert(10000,0.0000439356969377126,0.0271374707216779,0.00115275781364292)</t>
-  </si>
-  <si>
-    <t>rpert(10000,3.4050810942168e-05,0.032612289922902,2.00186154478751e-05)</t>
+    <t>rpert(10000,0.000453471880004924*1000,0.367585542549371*1000,0.0108778126416506*1000)/1000</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000463058949761048*1000,0.331669957628834*1000,0.0262369517356783*1000)/1000</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000711930430477487*1000,0.368885907931813*1000,0.0365735213317957*1000)/1000</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.00135390733998949*1000,0.47014876961416*1000,0.0154219670177168*1000)/1000</t>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.19023714895814,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1733,9 +1739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O115" sqref="O115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2300,28 +2306,28 @@
         <v>67</v>
       </c>
       <c r="K15" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15" t="s">
+        <v>355</v>
+      </c>
+      <c r="M15" t="s">
+        <v>354</v>
+      </c>
+      <c r="N15" t="s">
+        <v>357</v>
+      </c>
+      <c r="O15" t="s">
+        <v>353</v>
+      </c>
+      <c r="P15" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>363</v>
+      </c>
+      <c r="R15" t="s">
         <v>358</v>
-      </c>
-      <c r="L15" t="s">
-        <v>362</v>
-      </c>
-      <c r="M15" t="s">
-        <v>360</v>
-      </c>
-      <c r="N15" t="s">
-        <v>364</v>
-      </c>
-      <c r="O15" t="s">
-        <v>359</v>
-      </c>
-      <c r="P15" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>361</v>
-      </c>
-      <c r="R15" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -5039,43 +5045,43 @@
         <v>347</v>
       </c>
       <c r="K115" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="L115" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M115" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N115" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="O115" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P115" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q115" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="R115" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C119" t="s">
         <v>79</v>
@@ -5128,7 +5134,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C120" t="s">
         <v>277</v>

--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7856FF-B22C-1F4F-A576-BB8E720E0FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6D87D-E904-A444-B3E4-80A28885AD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="-620" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="360">
   <si>
     <t>AHLE Parameter</t>
   </si>
@@ -1028,18 +1041,6 @@
   </si>
   <si>
     <t>rpert(10000,21.5242344108972,51.5260766881842,30.8185135489957)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.7450206711001,51.8163363211342,31.2165280347598)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.8295844987448,52.9607800751334,30.8135508337074)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.898112415062,52.0216696706451,31.1463660426073)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.8118158642296,51.3334544864124,31.2930014051047)</t>
   </si>
   <si>
     <t>lab_non_health</t>
@@ -1739,9 +1740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2306,28 +2307,28 @@
         <v>67</v>
       </c>
       <c r="K15" t="s">
+        <v>348</v>
+      </c>
+      <c r="L15" t="s">
+        <v>351</v>
+      </c>
+      <c r="M15" t="s">
+        <v>350</v>
+      </c>
+      <c r="N15" t="s">
+        <v>353</v>
+      </c>
+      <c r="O15" t="s">
+        <v>349</v>
+      </c>
+      <c r="P15" t="s">
         <v>352</v>
       </c>
-      <c r="L15" t="s">
-        <v>355</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
+        <v>359</v>
+      </c>
+      <c r="R15" t="s">
         <v>354</v>
-      </c>
-      <c r="N15" t="s">
-        <v>357</v>
-      </c>
-      <c r="O15" t="s">
-        <v>353</v>
-      </c>
-      <c r="P15" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>363</v>
-      </c>
-      <c r="R15" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -4928,33 +4929,33 @@
         <v>335</v>
       </c>
       <c r="O108" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P108" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q108" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="R108" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G109" t="s">
         <v>277</v>
@@ -4969,33 +4970,33 @@
         <v>277</v>
       </c>
       <c r="K109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="R109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -5005,20 +5006,20 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
         <v>79</v>
@@ -5033,55 +5034,55 @@
         <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H115" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I115" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J115" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K115" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L115" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M115" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N115" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O115" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P115" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q115" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="R115" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C119" t="s">
         <v>79</v>
@@ -5134,7 +5135,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C120" t="s">
         <v>277</v>

--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/sr_disease_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E6EEE-6BDC-DA4F-9AA9-FB71B7F92CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E3D3EC-2593-C641-A1EB-DBA992A6E31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-620" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="373">
   <si>
     <t>AHLE Parameter</t>
   </si>
@@ -350,19 +350,16 @@
     <t># offtake rate female (juv and adult only)</t>
   </si>
   <si>
-    <t>3.3333333333333335E-3</t>
-  </si>
-  <si>
-    <t>0.09/12</t>
-  </si>
-  <si>
-    <t>0.02/12</t>
-  </si>
-  <si>
-    <t>0.02/13</t>
-  </si>
-  <si>
-    <t>0.13/12</t>
+    <t>-5.9259259259259248E-3</t>
+  </si>
+  <si>
+    <t>-1.759259259259259E-3</t>
+  </si>
+  <si>
+    <t>-7.5925925925925918E-3</t>
+  </si>
+  <si>
+    <t>1.574074074074075E-3</t>
   </si>
   <si>
     <t>GammaM</t>
@@ -371,19 +368,16 @@
     <t># offtake rate male</t>
   </si>
   <si>
-    <t>4.5000000000000005E-2</t>
-  </si>
-  <si>
-    <t>0.71/12</t>
-  </si>
-  <si>
-    <t>0.12/12</t>
-  </si>
-  <si>
-    <t>0.12/13</t>
-  </si>
-  <si>
-    <t>0.63/12</t>
+    <t>2.4166666666666673E-2</t>
+  </si>
+  <si>
+    <t>-1.3333333333333332E-2</t>
+  </si>
+  <si>
+    <t>-1.9166666666666665E-2</t>
+  </si>
+  <si>
+    <t>-9.9999999999999985E-3</t>
   </si>
   <si>
     <t># Mortality ## informed from META analysis</t>
@@ -527,9 +521,6 @@
     <t>9.2592592592592587E-3</t>
   </si>
   <si>
-    <t>1/108</t>
-  </si>
-  <si>
     <t>CullM</t>
   </si>
   <si>
@@ -1079,6 +1070,24 @@
     <t>runif(10000, (2.2/12), (2.8/12))</t>
   </si>
   <si>
+    <t>rpert(10000,0.000351512719024244,0.312092690973021,0.0249709032180581)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000661006883822271,0.362775672885617,0.0167209702486685)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000916384252815416,0.403872948456688,0.0276185584952214)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.000549775341585994,0.425164025873641,0.0266032238482458)</t>
+  </si>
+  <si>
+    <t>rpert(10000,5.9529136188386e-06,0.02210638152954,0.000113548705137085)</t>
+  </si>
+  <si>
+    <t>rpert(10000,2.23893881475057e-05,0.0277775581066755,0.00121208857555296)</t>
+  </si>
+  <si>
     <t>## Capital costs</t>
   </si>
   <si>
@@ -1091,83 +1100,497 @@
     <t>Infrastructure_per_head</t>
   </si>
   <si>
-    <t>rpert(10000,0.52,1.7126148623999,0.8)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.52,1.73809812084691,0.8)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.37,1.1905090549703,0.844976088397568)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.37,1.19154915071611,0.847820923117443)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.9242597775005,649/12,31.1611183905387)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.8563071308227,649/12,31.1704119004113)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.7385526738209,649/12,31.0766455618653)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.9121857519026,649/12,30.9997345402509)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.9963530862821,649/12,31.3285206753621)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.926760891523,649/12,31.3450540929619)</t>
-  </si>
-  <si>
-    <t>rpert(10000,21.9546676504564,649/12,31.5534271525808)</t>
-  </si>
-  <si>
-    <t>rpert(10000,22.1055712768484,649/12,31.0736594739743)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.52,1.0910231708329,0.80)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.52,1.10201915574471,0.80)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.55,1.1124211627728,0.845360324411848)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.55,1.11313076059574,0.848634873660363)</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000351512719024244*1000,0.312092690973021*1000,0.0249709032180581*1000)/1000</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000661006883822271*1000,0.362775672885617*1000,0.0167209702486685*1000)/1000</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000916384252815416*1000,0.403872948456688*1000,0.0276185584952214*1000)/1000</t>
-  </si>
-  <si>
-    <t>rpert(10000,0.000549775341585994*1000,0.425164025873641*1000,0.0266032238482458*1000)/1000</t>
-  </si>
-  <si>
-    <t>rpert(10000,5.9529136188386e-06*1000,0.02210638152954*1000,0.000113548705137085*1000)/1000</t>
-  </si>
-  <si>
-    <t>rpert(10000,2.23893881475057e-05*1000,0.0277775581066755*1000,0.00121208857555296*1000)/1000</t>
-  </si>
-  <si>
-    <t>rpert(10000,6.14767144748539e-05*1000,0.0342410459518545*1000,0.000104589057432835*1000)/1000</t>
-  </si>
-  <si>
-    <t>rpert(10000,1.45670544318298e-05*1000,0.0253043791891789*1000,0.000331038733457455*1000)/1000</t>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.7126148623999,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,22.1055712768484,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,31.0736594739743)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,21.9546676504564,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,31.5534271525808)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,21.926760891523,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,31.3450540929619)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,21.9963530862821,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,31.3285206753621)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,21.9242597775005,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,31.1611183905387)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,21.8563071308227,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,31.1704119004113)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,21.7385526738209,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,31.0766455618653)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,21.9121857519026,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>649/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,30.9997345402509)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.73809812084691,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.1905090549703,0.844976088397568)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.19154915071611,0.847820923117443)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.0910231708329,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.10201915574471,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.1124211627728,0.845360324411848)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.11313076059574,0.848634873660363)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,1.45670544318298e-05,0.0253043791891789,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.000331038733457455)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpert(10000,6.14767144748539e-05,0.0342410459518545,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.000104589057432835)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,6 +1605,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1515,8 +1943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H82" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U115" sqref="U115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2194,28 +2623,28 @@
         <v>68</v>
       </c>
       <c r="O15" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>365</v>
+      </c>
+      <c r="R15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S15" t="s">
         <v>364</v>
       </c>
-      <c r="Q15" t="s">
-        <v>354</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
+        <v>368</v>
+      </c>
+      <c r="U15" t="s">
         <v>366</v>
       </c>
-      <c r="S15" t="s">
-        <v>353</v>
-      </c>
-      <c r="T15" t="s">
-        <v>365</v>
-      </c>
-      <c r="U15" t="s">
-        <v>355</v>
-      </c>
       <c r="V15" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -2615,16 +3044,16 @@
         <v>107</v>
       </c>
       <c r="K27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" t="s">
         <v>108</v>
       </c>
-      <c r="L27" t="s">
-        <v>109</v>
-      </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O27" t="s">
         <v>105</v>
@@ -2636,7 +3065,7 @@
         <v>106</v>
       </c>
       <c r="R27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S27" t="s">
         <v>105</v>
@@ -2648,204 +3077,204 @@
         <v>106</v>
       </c>
       <c r="V27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>111</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>112</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>113</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>113</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>113</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>114</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
         <v>114</v>
       </c>
-      <c r="K28" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" t="s">
-        <v>116</v>
-      </c>
       <c r="N28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" t="s">
         <v>112</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>114</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" t="s">
         <v>113</v>
       </c>
-      <c r="R28" t="s">
-        <v>116</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>112</v>
       </c>
-      <c r="T28" t="s">
+      <c r="V28" t="s">
         <v>114</v>
-      </c>
-      <c r="U28" t="s">
-        <v>113</v>
-      </c>
-      <c r="V28" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
         <v>119</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" t="s">
         <v>121</v>
       </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="M31" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" t="s">
         <v>122</v>
       </c>
-      <c r="J31" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>123</v>
       </c>
-      <c r="M31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>124</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>125</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>126</v>
       </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
         <v>127</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>128</v>
       </c>
-      <c r="T31" t="s">
+      <c r="V31" t="s">
         <v>129</v>
-      </c>
-      <c r="U31" t="s">
-        <v>130</v>
-      </c>
-      <c r="V31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
         <v>132</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" t="s">
         <v>134</v>
       </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="P32" t="s">
         <v>135</v>
       </c>
-      <c r="G32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K32" t="s">
-        <v>84</v>
-      </c>
-      <c r="L32" t="s">
-        <v>135</v>
-      </c>
-      <c r="M32" t="s">
-        <v>84</v>
-      </c>
-      <c r="N32" t="s">
-        <v>84</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>136</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>137</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>138</v>
-      </c>
-      <c r="R32" t="s">
-        <v>139</v>
       </c>
       <c r="S32" t="s">
         <v>84</v>
@@ -2862,126 +3291,126 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
         <v>140</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
         <v>141</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="P33" t="s">
         <v>143</v>
       </c>
-      <c r="G33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L33" t="s">
-        <v>143</v>
-      </c>
-      <c r="M33" t="s">
-        <v>84</v>
-      </c>
-      <c r="N33" t="s">
-        <v>84</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>144</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>145</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>146</v>
       </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>147</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>148</v>
       </c>
-      <c r="T33" t="s">
+      <c r="V33" t="s">
         <v>149</v>
-      </c>
-      <c r="U33" t="s">
-        <v>150</v>
-      </c>
-      <c r="V33" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
         <v>153</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" t="s">
         <v>154</v>
       </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="P34" t="s">
         <v>155</v>
       </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" t="s">
-        <v>154</v>
-      </c>
-      <c r="J34" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L34" t="s">
-        <v>155</v>
-      </c>
-      <c r="M34" t="s">
-        <v>84</v>
-      </c>
-      <c r="N34" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>156</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>157</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>158</v>
-      </c>
-      <c r="R34" t="s">
-        <v>159</v>
       </c>
       <c r="S34" t="s">
         <v>84</v>
@@ -2998,1230 +3427,1230 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
         <v>161</v>
       </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="S38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="U38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
         <v>170</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
         <v>171</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" t="s">
         <v>172</v>
       </c>
-      <c r="D43" t="s">
+      <c r="H43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" t="s">
         <v>173</v>
       </c>
-      <c r="E43" t="s">
+      <c r="K43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" t="s">
+        <v>174</v>
+      </c>
+      <c r="M43" t="s">
+        <v>175</v>
+      </c>
+      <c r="N43" t="s">
+        <v>174</v>
+      </c>
+      <c r="O43" t="s">
+        <v>170</v>
+      </c>
+      <c r="P43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q43" t="s">
         <v>172</v>
       </c>
-      <c r="F43" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="R43" t="s">
         <v>175</v>
       </c>
-      <c r="H43" t="s">
-        <v>174</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="S43" t="s">
+        <v>170</v>
+      </c>
+      <c r="T43" t="s">
+        <v>173</v>
+      </c>
+      <c r="U43" t="s">
         <v>172</v>
       </c>
-      <c r="J43" t="s">
-        <v>176</v>
-      </c>
-      <c r="K43" t="s">
-        <v>172</v>
-      </c>
-      <c r="L43" t="s">
-        <v>177</v>
-      </c>
-      <c r="M43" t="s">
-        <v>178</v>
-      </c>
-      <c r="N43" t="s">
-        <v>177</v>
-      </c>
-      <c r="O43" t="s">
-        <v>173</v>
-      </c>
-      <c r="P43" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="V43" t="s">
         <v>175</v>
-      </c>
-      <c r="R43" t="s">
-        <v>178</v>
-      </c>
-      <c r="S43" t="s">
-        <v>173</v>
-      </c>
-      <c r="T43" t="s">
-        <v>176</v>
-      </c>
-      <c r="U43" t="s">
-        <v>175</v>
-      </c>
-      <c r="V43" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
         <v>179</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>180</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
         <v>181</v>
       </c>
-      <c r="D44" t="s">
+      <c r="H44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" t="s">
         <v>182</v>
       </c>
-      <c r="E44" t="s">
+      <c r="K44" t="s">
+        <v>169</v>
+      </c>
+      <c r="L44" t="s">
+        <v>174</v>
+      </c>
+      <c r="M44" t="s">
         <v>183</v>
       </c>
-      <c r="F44" t="s">
+      <c r="N44" t="s">
         <v>174</v>
       </c>
-      <c r="G44" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" t="s">
-        <v>174</v>
-      </c>
-      <c r="I44" t="s">
-        <v>172</v>
-      </c>
-      <c r="J44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K44" t="s">
-        <v>172</v>
-      </c>
-      <c r="L44" t="s">
-        <v>177</v>
-      </c>
-      <c r="M44" t="s">
-        <v>186</v>
-      </c>
-      <c r="N44" t="s">
-        <v>177</v>
-      </c>
       <c r="O44" t="s">
+        <v>179</v>
+      </c>
+      <c r="P44" t="s">
         <v>182</v>
       </c>
-      <c r="P44" t="s">
-        <v>185</v>
-      </c>
       <c r="Q44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S44" t="s">
+        <v>179</v>
+      </c>
+      <c r="T44" t="s">
         <v>182</v>
       </c>
-      <c r="T44" t="s">
-        <v>185</v>
-      </c>
       <c r="U44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="V44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" t="s">
         <v>187</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" t="s">
         <v>189</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" t="s">
         <v>190</v>
       </c>
-      <c r="E45" t="s">
+      <c r="J45" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" t="s">
+        <v>190</v>
+      </c>
+      <c r="L45" t="s">
+        <v>191</v>
+      </c>
+      <c r="M45" t="s">
+        <v>192</v>
+      </c>
+      <c r="N45" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" t="s">
+        <v>187</v>
+      </c>
+      <c r="P45" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q45" t="s">
         <v>189</v>
       </c>
-      <c r="F45" t="s">
-        <v>191</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="R45" t="s">
         <v>192</v>
       </c>
-      <c r="H45" t="s">
-        <v>191</v>
-      </c>
-      <c r="I45" t="s">
-        <v>193</v>
-      </c>
-      <c r="J45" t="s">
-        <v>193</v>
-      </c>
-      <c r="K45" t="s">
-        <v>193</v>
-      </c>
-      <c r="L45" t="s">
-        <v>194</v>
-      </c>
-      <c r="M45" t="s">
-        <v>195</v>
-      </c>
-      <c r="N45" t="s">
-        <v>194</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="S45" t="s">
+        <v>187</v>
+      </c>
+      <c r="T45" t="s">
         <v>190</v>
       </c>
-      <c r="P45" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="U45" t="s">
+        <v>189</v>
+      </c>
+      <c r="V45" t="s">
         <v>192</v>
-      </c>
-      <c r="R45" t="s">
-        <v>195</v>
-      </c>
-      <c r="S45" t="s">
-        <v>190</v>
-      </c>
-      <c r="T45" t="s">
-        <v>193</v>
-      </c>
-      <c r="U45" t="s">
-        <v>192</v>
-      </c>
-      <c r="V45" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" t="s">
         <v>196</v>
       </c>
-      <c r="B46" t="s">
+      <c r="H46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" t="s">
+        <v>191</v>
+      </c>
+      <c r="M46" t="s">
         <v>197</v>
       </c>
-      <c r="C46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="N46" t="s">
         <v>191</v>
       </c>
-      <c r="G46" t="s">
-        <v>199</v>
-      </c>
-      <c r="H46" t="s">
-        <v>191</v>
-      </c>
-      <c r="I46" t="s">
-        <v>193</v>
-      </c>
-      <c r="J46" t="s">
-        <v>193</v>
-      </c>
-      <c r="K46" t="s">
-        <v>193</v>
-      </c>
-      <c r="L46" t="s">
-        <v>194</v>
-      </c>
-      <c r="M46" t="s">
-        <v>200</v>
-      </c>
-      <c r="N46" t="s">
-        <v>194</v>
-      </c>
       <c r="O46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="T46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="V46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
         <v>201</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s">
         <v>202</v>
       </c>
-      <c r="C47" t="s">
+      <c r="G47" t="s">
         <v>203</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H47" t="s">
+        <v>202</v>
+      </c>
+      <c r="I47" t="s">
         <v>204</v>
       </c>
-      <c r="E47" t="s">
+      <c r="J47" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" t="s">
+        <v>204</v>
+      </c>
+      <c r="L47" t="s">
+        <v>202</v>
+      </c>
+      <c r="M47" t="s">
+        <v>205</v>
+      </c>
+      <c r="N47" t="s">
+        <v>202</v>
+      </c>
+      <c r="O47" t="s">
+        <v>201</v>
+      </c>
+      <c r="P47" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q47" t="s">
         <v>203</v>
       </c>
-      <c r="F47" t="s">
+      <c r="R47" t="s">
         <v>205</v>
       </c>
-      <c r="G47" t="s">
-        <v>206</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="S47" t="s">
+        <v>201</v>
+      </c>
+      <c r="T47" t="s">
+        <v>204</v>
+      </c>
+      <c r="U47" t="s">
+        <v>203</v>
+      </c>
+      <c r="V47" t="s">
         <v>205</v>
-      </c>
-      <c r="I47" t="s">
-        <v>207</v>
-      </c>
-      <c r="J47" t="s">
-        <v>207</v>
-      </c>
-      <c r="K47" t="s">
-        <v>207</v>
-      </c>
-      <c r="L47" t="s">
-        <v>205</v>
-      </c>
-      <c r="M47" t="s">
-        <v>208</v>
-      </c>
-      <c r="N47" t="s">
-        <v>205</v>
-      </c>
-      <c r="O47" t="s">
-        <v>204</v>
-      </c>
-      <c r="P47" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>206</v>
-      </c>
-      <c r="R47" t="s">
-        <v>208</v>
-      </c>
-      <c r="S47" t="s">
-        <v>204</v>
-      </c>
-      <c r="T47" t="s">
-        <v>207</v>
-      </c>
-      <c r="U47" t="s">
-        <v>206</v>
-      </c>
-      <c r="V47" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" t="s">
         <v>209</v>
       </c>
-      <c r="B48" t="s">
+      <c r="G48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" t="s">
+        <v>207</v>
+      </c>
+      <c r="K48" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" t="s">
         <v>202</v>
       </c>
-      <c r="C48" t="s">
+      <c r="M48" t="s">
+        <v>211</v>
+      </c>
+      <c r="N48" t="s">
+        <v>202</v>
+      </c>
+      <c r="O48" t="s">
+        <v>208</v>
+      </c>
+      <c r="P48" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q48" t="s">
         <v>210</v>
       </c>
-      <c r="D48" t="s">
+      <c r="R48" t="s">
         <v>211</v>
       </c>
-      <c r="E48" t="s">
+      <c r="S48" t="s">
+        <v>208</v>
+      </c>
+      <c r="T48" t="s">
+        <v>207</v>
+      </c>
+      <c r="U48" t="s">
         <v>210</v>
       </c>
-      <c r="F48" t="s">
-        <v>212</v>
-      </c>
-      <c r="G48" t="s">
-        <v>213</v>
-      </c>
-      <c r="H48" t="s">
-        <v>212</v>
-      </c>
-      <c r="I48" t="s">
-        <v>210</v>
-      </c>
-      <c r="J48" t="s">
-        <v>210</v>
-      </c>
-      <c r="K48" t="s">
-        <v>210</v>
-      </c>
-      <c r="L48" t="s">
-        <v>205</v>
-      </c>
-      <c r="M48" t="s">
-        <v>214</v>
-      </c>
-      <c r="N48" t="s">
-        <v>205</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="V48" t="s">
         <v>211</v>
-      </c>
-      <c r="P48" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>213</v>
-      </c>
-      <c r="R48" t="s">
-        <v>214</v>
-      </c>
-      <c r="S48" t="s">
-        <v>211</v>
-      </c>
-      <c r="T48" t="s">
-        <v>210</v>
-      </c>
-      <c r="U48" t="s">
-        <v>213</v>
-      </c>
-      <c r="V48" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="T51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="U51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="V51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" t="s">
         <v>221</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
         <v>222</v>
       </c>
-      <c r="C55" t="s">
+      <c r="G55" t="s">
         <v>223</v>
       </c>
-      <c r="D55" t="s">
+      <c r="H55" t="s">
+        <v>222</v>
+      </c>
+      <c r="I55" t="s">
         <v>224</v>
       </c>
-      <c r="E55" t="s">
+      <c r="J55" t="s">
+        <v>225</v>
+      </c>
+      <c r="K55" t="s">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M55" t="s">
+        <v>227</v>
+      </c>
+      <c r="N55" t="s">
+        <v>226</v>
+      </c>
+      <c r="O55" t="s">
+        <v>221</v>
+      </c>
+      <c r="P55" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q55" t="s">
         <v>223</v>
       </c>
-      <c r="F55" t="s">
+      <c r="R55" t="s">
+        <v>227</v>
+      </c>
+      <c r="S55" t="s">
+        <v>221</v>
+      </c>
+      <c r="T55" t="s">
         <v>225</v>
       </c>
-      <c r="G55" t="s">
-        <v>226</v>
-      </c>
-      <c r="H55" t="s">
-        <v>225</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="U55" t="s">
+        <v>223</v>
+      </c>
+      <c r="V55" t="s">
         <v>227</v>
-      </c>
-      <c r="J55" t="s">
-        <v>228</v>
-      </c>
-      <c r="K55" t="s">
-        <v>227</v>
-      </c>
-      <c r="L55" t="s">
-        <v>229</v>
-      </c>
-      <c r="M55" t="s">
-        <v>230</v>
-      </c>
-      <c r="N55" t="s">
-        <v>229</v>
-      </c>
-      <c r="O55" t="s">
-        <v>224</v>
-      </c>
-      <c r="P55" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>226</v>
-      </c>
-      <c r="R55" t="s">
-        <v>230</v>
-      </c>
-      <c r="S55" t="s">
-        <v>224</v>
-      </c>
-      <c r="T55" t="s">
-        <v>228</v>
-      </c>
-      <c r="U55" t="s">
-        <v>226</v>
-      </c>
-      <c r="V55" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" t="s">
         <v>231</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" t="s">
         <v>232</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56" t="s">
         <v>233</v>
       </c>
-      <c r="D56" t="s">
+      <c r="H56" t="s">
+        <v>232</v>
+      </c>
+      <c r="I56" t="s">
         <v>234</v>
       </c>
-      <c r="E56" t="s">
+      <c r="J56" t="s">
+        <v>235</v>
+      </c>
+      <c r="K56" t="s">
+        <v>234</v>
+      </c>
+      <c r="L56" t="s">
+        <v>236</v>
+      </c>
+      <c r="M56" t="s">
+        <v>237</v>
+      </c>
+      <c r="N56" t="s">
+        <v>236</v>
+      </c>
+      <c r="O56" t="s">
+        <v>231</v>
+      </c>
+      <c r="P56" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q56" t="s">
         <v>233</v>
       </c>
-      <c r="F56" t="s">
+      <c r="R56" t="s">
+        <v>237</v>
+      </c>
+      <c r="S56" t="s">
+        <v>231</v>
+      </c>
+      <c r="T56" t="s">
         <v>235</v>
       </c>
-      <c r="G56" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" t="s">
-        <v>235</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="U56" t="s">
+        <v>233</v>
+      </c>
+      <c r="V56" t="s">
         <v>237</v>
-      </c>
-      <c r="J56" t="s">
-        <v>238</v>
-      </c>
-      <c r="K56" t="s">
-        <v>237</v>
-      </c>
-      <c r="L56" t="s">
-        <v>239</v>
-      </c>
-      <c r="M56" t="s">
-        <v>240</v>
-      </c>
-      <c r="N56" t="s">
-        <v>239</v>
-      </c>
-      <c r="O56" t="s">
-        <v>234</v>
-      </c>
-      <c r="P56" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>236</v>
-      </c>
-      <c r="R56" t="s">
-        <v>240</v>
-      </c>
-      <c r="S56" t="s">
-        <v>234</v>
-      </c>
-      <c r="T56" t="s">
-        <v>238</v>
-      </c>
-      <c r="U56" t="s">
-        <v>236</v>
-      </c>
-      <c r="V56" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" t="s">
         <v>241</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" t="s">
         <v>242</v>
       </c>
-      <c r="C57" t="s">
+      <c r="G57" t="s">
         <v>243</v>
       </c>
-      <c r="D57" t="s">
+      <c r="H57" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" t="s">
         <v>244</v>
       </c>
-      <c r="E57" t="s">
+      <c r="J57" t="s">
+        <v>245</v>
+      </c>
+      <c r="K57" t="s">
+        <v>244</v>
+      </c>
+      <c r="L57" t="s">
+        <v>246</v>
+      </c>
+      <c r="M57" t="s">
+        <v>247</v>
+      </c>
+      <c r="N57" t="s">
+        <v>246</v>
+      </c>
+      <c r="O57" t="s">
+        <v>241</v>
+      </c>
+      <c r="P57" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q57" t="s">
         <v>243</v>
       </c>
-      <c r="F57" t="s">
+      <c r="R57" t="s">
+        <v>247</v>
+      </c>
+      <c r="S57" t="s">
+        <v>241</v>
+      </c>
+      <c r="T57" t="s">
         <v>245</v>
       </c>
-      <c r="G57" t="s">
-        <v>246</v>
-      </c>
-      <c r="H57" t="s">
-        <v>245</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="U57" t="s">
+        <v>243</v>
+      </c>
+      <c r="V57" t="s">
         <v>247</v>
-      </c>
-      <c r="J57" t="s">
-        <v>248</v>
-      </c>
-      <c r="K57" t="s">
-        <v>247</v>
-      </c>
-      <c r="L57" t="s">
-        <v>249</v>
-      </c>
-      <c r="M57" t="s">
-        <v>250</v>
-      </c>
-      <c r="N57" t="s">
-        <v>249</v>
-      </c>
-      <c r="O57" t="s">
-        <v>244</v>
-      </c>
-      <c r="P57" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>246</v>
-      </c>
-      <c r="R57" t="s">
-        <v>250</v>
-      </c>
-      <c r="S57" t="s">
-        <v>244</v>
-      </c>
-      <c r="T57" t="s">
-        <v>248</v>
-      </c>
-      <c r="U57" t="s">
-        <v>246</v>
-      </c>
-      <c r="V57" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" t="s">
         <v>251</v>
       </c>
-      <c r="B58" t="s">
+      <c r="G58" t="s">
         <v>252</v>
       </c>
-      <c r="C58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="H58" t="s">
+        <v>251</v>
+      </c>
+      <c r="I58" t="s">
+        <v>224</v>
+      </c>
+      <c r="J58" t="s">
         <v>253</v>
       </c>
-      <c r="E58" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="K58" t="s">
+        <v>224</v>
+      </c>
+      <c r="L58" t="s">
+        <v>226</v>
+      </c>
+      <c r="M58" t="s">
         <v>254</v>
       </c>
-      <c r="G58" t="s">
-        <v>255</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="N58" t="s">
+        <v>226</v>
+      </c>
+      <c r="O58" t="s">
+        <v>250</v>
+      </c>
+      <c r="P58" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>252</v>
+      </c>
+      <c r="R58" t="s">
         <v>254</v>
       </c>
-      <c r="I58" t="s">
-        <v>227</v>
-      </c>
-      <c r="J58" t="s">
-        <v>256</v>
-      </c>
-      <c r="K58" t="s">
-        <v>227</v>
-      </c>
-      <c r="L58" t="s">
-        <v>229</v>
-      </c>
-      <c r="M58" t="s">
-        <v>257</v>
-      </c>
-      <c r="N58" t="s">
-        <v>229</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="S58" t="s">
+        <v>250</v>
+      </c>
+      <c r="T58" t="s">
         <v>253</v>
       </c>
-      <c r="P58" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>255</v>
-      </c>
-      <c r="R58" t="s">
-        <v>257</v>
-      </c>
-      <c r="S58" t="s">
-        <v>253</v>
-      </c>
-      <c r="T58" t="s">
-        <v>256</v>
-      </c>
       <c r="U58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="V58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" t="s">
         <v>258</v>
       </c>
-      <c r="B59" t="s">
+      <c r="E59" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" t="s">
         <v>259</v>
       </c>
-      <c r="C59" t="s">
+      <c r="G59" t="s">
         <v>260</v>
       </c>
-      <c r="D59" t="s">
+      <c r="H59" t="s">
+        <v>259</v>
+      </c>
+      <c r="I59" t="s">
         <v>261</v>
       </c>
-      <c r="E59" t="s">
+      <c r="J59" t="s">
+        <v>262</v>
+      </c>
+      <c r="K59" t="s">
+        <v>261</v>
+      </c>
+      <c r="L59" t="s">
+        <v>263</v>
+      </c>
+      <c r="M59" t="s">
+        <v>264</v>
+      </c>
+      <c r="N59" t="s">
+        <v>263</v>
+      </c>
+      <c r="O59" t="s">
+        <v>258</v>
+      </c>
+      <c r="P59" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q59" t="s">
         <v>260</v>
       </c>
-      <c r="F59" t="s">
+      <c r="R59" t="s">
+        <v>264</v>
+      </c>
+      <c r="S59" t="s">
+        <v>258</v>
+      </c>
+      <c r="T59" t="s">
         <v>262</v>
       </c>
-      <c r="G59" t="s">
-        <v>263</v>
-      </c>
-      <c r="H59" t="s">
-        <v>262</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="U59" t="s">
+        <v>260</v>
+      </c>
+      <c r="V59" t="s">
         <v>264</v>
-      </c>
-      <c r="J59" t="s">
-        <v>265</v>
-      </c>
-      <c r="K59" t="s">
-        <v>264</v>
-      </c>
-      <c r="L59" t="s">
-        <v>266</v>
-      </c>
-      <c r="M59" t="s">
-        <v>267</v>
-      </c>
-      <c r="N59" t="s">
-        <v>266</v>
-      </c>
-      <c r="O59" t="s">
-        <v>261</v>
-      </c>
-      <c r="P59" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>263</v>
-      </c>
-      <c r="R59" t="s">
-        <v>267</v>
-      </c>
-      <c r="S59" t="s">
-        <v>261</v>
-      </c>
-      <c r="T59" t="s">
-        <v>265</v>
-      </c>
-      <c r="U59" t="s">
-        <v>263</v>
-      </c>
-      <c r="V59" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" t="s">
         <v>268</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" t="s">
         <v>269</v>
       </c>
-      <c r="C60" t="s">
+      <c r="G60" t="s">
         <v>270</v>
       </c>
-      <c r="D60" t="s">
+      <c r="H60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I60" t="s">
         <v>271</v>
       </c>
-      <c r="E60" t="s">
+      <c r="J60" t="s">
+        <v>272</v>
+      </c>
+      <c r="K60" t="s">
+        <v>271</v>
+      </c>
+      <c r="L60" t="s">
+        <v>273</v>
+      </c>
+      <c r="M60" t="s">
+        <v>274</v>
+      </c>
+      <c r="N60" t="s">
+        <v>273</v>
+      </c>
+      <c r="O60" t="s">
+        <v>268</v>
+      </c>
+      <c r="P60" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q60" t="s">
         <v>270</v>
       </c>
-      <c r="F60" t="s">
+      <c r="R60" t="s">
+        <v>274</v>
+      </c>
+      <c r="S60" t="s">
+        <v>268</v>
+      </c>
+      <c r="T60" t="s">
         <v>272</v>
       </c>
-      <c r="G60" t="s">
-        <v>273</v>
-      </c>
-      <c r="H60" t="s">
-        <v>272</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="U60" t="s">
+        <v>270</v>
+      </c>
+      <c r="V60" t="s">
         <v>274</v>
-      </c>
-      <c r="J60" t="s">
-        <v>275</v>
-      </c>
-      <c r="K60" t="s">
-        <v>274</v>
-      </c>
-      <c r="L60" t="s">
-        <v>276</v>
-      </c>
-      <c r="M60" t="s">
-        <v>277</v>
-      </c>
-      <c r="N60" t="s">
-        <v>276</v>
-      </c>
-      <c r="O60" t="s">
-        <v>271</v>
-      </c>
-      <c r="P60" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>273</v>
-      </c>
-      <c r="R60" t="s">
-        <v>277</v>
-      </c>
-      <c r="S60" t="s">
-        <v>271</v>
-      </c>
-      <c r="T60" t="s">
-        <v>275</v>
-      </c>
-      <c r="U60" t="s">
-        <v>273</v>
-      </c>
-      <c r="V60" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="T67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C71" t="s">
         <v>99</v>
@@ -4233,780 +4662,780 @@
         <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O71" t="s">
         <v>99</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="R71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S71" t="s">
         <v>99</v>
       </c>
       <c r="T71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="V71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" t="s">
+        <v>291</v>
+      </c>
+      <c r="F74" t="s">
         <v>292</v>
       </c>
-      <c r="B74" t="s">
+      <c r="G74" t="s">
+        <v>292</v>
+      </c>
+      <c r="H74" t="s">
+        <v>292</v>
+      </c>
+      <c r="I74" t="s">
         <v>293</v>
       </c>
-      <c r="C74" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" t="s">
-        <v>294</v>
-      </c>
-      <c r="E74" t="s">
-        <v>294</v>
-      </c>
-      <c r="F74" t="s">
-        <v>295</v>
-      </c>
-      <c r="G74" t="s">
-        <v>295</v>
-      </c>
-      <c r="H74" t="s">
-        <v>295</v>
-      </c>
-      <c r="I74" t="s">
-        <v>296</v>
-      </c>
       <c r="J74" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K74" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O74" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="R74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S74" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="T74" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="V74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" t="s">
         <v>297</v>
       </c>
-      <c r="B75" t="s">
+      <c r="G75" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" t="s">
+        <v>297</v>
+      </c>
+      <c r="I75" t="s">
         <v>298</v>
       </c>
-      <c r="C75" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G75" t="s">
-        <v>300</v>
-      </c>
-      <c r="H75" t="s">
-        <v>300</v>
-      </c>
-      <c r="I75" t="s">
-        <v>301</v>
-      </c>
       <c r="J75" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K75" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P75" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="R75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T75" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="U75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="V75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" t="s">
+        <v>301</v>
+      </c>
+      <c r="F76" t="s">
         <v>302</v>
       </c>
-      <c r="B76" t="s">
+      <c r="G76" t="s">
+        <v>302</v>
+      </c>
+      <c r="H76" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" t="s">
         <v>303</v>
       </c>
-      <c r="C76" t="s">
-        <v>304</v>
-      </c>
-      <c r="D76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" t="s">
-        <v>305</v>
-      </c>
-      <c r="G76" t="s">
-        <v>305</v>
-      </c>
-      <c r="H76" t="s">
-        <v>305</v>
-      </c>
-      <c r="I76" t="s">
-        <v>306</v>
-      </c>
       <c r="J76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I91" t="s">
         <v>84</v>
@@ -5027,25 +5456,25 @@
         <v>84</v>
       </c>
       <c r="O91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P91" t="s">
         <v>84</v>
       </c>
       <c r="Q91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="R91" t="s">
         <v>84</v>
       </c>
       <c r="S91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T91" t="s">
         <v>84</v>
       </c>
       <c r="U91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V91" t="s">
         <v>84</v>
@@ -5053,35 +5482,35 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I95" t="s">
         <v>84</v>
@@ -5102,25 +5531,25 @@
         <v>84</v>
       </c>
       <c r="O95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P95" t="s">
         <v>84</v>
       </c>
       <c r="Q95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R95" t="s">
         <v>84</v>
       </c>
       <c r="S95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T95" t="s">
         <v>84</v>
       </c>
       <c r="U95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V95" t="s">
         <v>84</v>
@@ -5128,33 +5557,33 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I98" t="s">
         <v>84</v>
@@ -5175,25 +5604,25 @@
         <v>84</v>
       </c>
       <c r="O98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P98" t="s">
         <v>84</v>
       </c>
       <c r="Q98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="R98" t="s">
         <v>84</v>
       </c>
       <c r="S98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="T98" t="s">
         <v>84</v>
       </c>
       <c r="U98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="V98" t="s">
         <v>84</v>
@@ -5201,333 +5630,333 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="T103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O108" t="s">
+        <v>356</v>
+      </c>
+      <c r="P108" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>358</v>
+      </c>
+      <c r="R108" t="s">
+        <v>359</v>
+      </c>
+      <c r="S108" t="s">
+        <v>360</v>
+      </c>
+      <c r="T108" t="s">
+        <v>361</v>
+      </c>
+      <c r="U108" t="s">
+        <v>362</v>
+      </c>
+      <c r="V108" t="s">
         <v>363</v>
-      </c>
-      <c r="P108" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>361</v>
-      </c>
-      <c r="R108" t="s">
-        <v>360</v>
-      </c>
-      <c r="S108" t="s">
-        <v>356</v>
-      </c>
-      <c r="T108" t="s">
-        <v>357</v>
-      </c>
-      <c r="U108" t="s">
-        <v>358</v>
-      </c>
-      <c r="V108" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="R109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="U109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="V109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>342</v>
+      </c>
+      <c r="B115" t="s">
+        <v>343</v>
+      </c>
+      <c r="C115" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" t="s">
+        <v>344</v>
+      </c>
+      <c r="F115" t="s">
+        <v>344</v>
+      </c>
+      <c r="G115" t="s">
+        <v>84</v>
+      </c>
+      <c r="H115" t="s">
+        <v>344</v>
+      </c>
+      <c r="I115" t="s">
+        <v>344</v>
+      </c>
+      <c r="J115" t="s">
+        <v>84</v>
+      </c>
+      <c r="K115" t="s">
+        <v>344</v>
+      </c>
+      <c r="L115" t="s">
+        <v>344</v>
+      </c>
+      <c r="M115" t="s">
+        <v>84</v>
+      </c>
+      <c r="N115" t="s">
+        <v>344</v>
+      </c>
+      <c r="O115" t="s">
         <v>345</v>
       </c>
-      <c r="B115" t="s">
+      <c r="P115" t="s">
         <v>346</v>
       </c>
-      <c r="C115" t="s">
+      <c r="Q115" t="s">
         <v>347</v>
       </c>
-      <c r="D115" t="s">
-        <v>84</v>
-      </c>
-      <c r="E115" t="s">
-        <v>347</v>
-      </c>
-      <c r="F115" t="s">
-        <v>347</v>
-      </c>
-      <c r="G115" t="s">
-        <v>84</v>
-      </c>
-      <c r="H115" t="s">
-        <v>347</v>
-      </c>
-      <c r="I115" t="s">
-        <v>347</v>
-      </c>
-      <c r="J115" t="s">
-        <v>84</v>
-      </c>
-      <c r="K115" t="s">
-        <v>347</v>
-      </c>
-      <c r="L115" t="s">
-        <v>347</v>
-      </c>
-      <c r="M115" t="s">
-        <v>84</v>
-      </c>
-      <c r="N115" t="s">
-        <v>347</v>
-      </c>
-      <c r="O115" t="s">
-        <v>368</v>
-      </c>
-      <c r="P115" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>370</v>
-      </c>
       <c r="R115" t="s">
+        <v>348</v>
+      </c>
+      <c r="S115" t="s">
+        <v>349</v>
+      </c>
+      <c r="T115" t="s">
         <v>371</v>
       </c>
-      <c r="S115" t="s">
+      <c r="U115" t="s">
+        <v>350</v>
+      </c>
+      <c r="V115" t="s">
         <v>372</v>
-      </c>
-      <c r="T115" t="s">
-        <v>375</v>
-      </c>
-      <c r="U115" t="s">
-        <v>373</v>
-      </c>
-      <c r="V115" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C119" t="s">
         <v>84</v>
@@ -5592,67 +6021,67 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="T120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
